--- a/SCBAA/2020/Region 7.xlsx
+++ b/SCBAA/2020/Region 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA06A3-65B5-4A4E-B41B-9F38ABB6750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED10A90-220B-4686-BFC4-6DF934B00F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="1050" windowWidth="13110" windowHeight="12495" firstSheet="6" activeTab="9" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="6" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tagbilaran" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2857,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
@@ -9997,8 +10004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F45F8-7851-401B-8CD0-4C55E5E3A47E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10241,7 +10248,9 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="70"/>
+      <c r="E22" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>

--- a/SCBAA/2020/Region 7.xlsx
+++ b/SCBAA/2020/Region 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED10A90-220B-4686-BFC4-6DF934B00F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4437D9-E37E-410A-8546-9697159245DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="6" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="2" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tagbilaran" sheetId="1" r:id="rId1"/>
@@ -5243,8 +5243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBBFCB5-EF77-4E40-A1C7-2ACD7D1864D9}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5401,7 +5401,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>107103901.97</v>
       </c>
     </row>
@@ -5455,7 +5454,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>37471048.549999997</v>
       </c>
     </row>
@@ -5646,7 +5644,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>719447735.06000006</v>
       </c>
     </row>
@@ -5692,7 +5689,6 @@
         <v>11</v>
       </c>
       <c r="E42" s="47">
-        <f>79584869.6+45000+0.9+135115.64+11364.43+2100+14914+1502000-185347.64</f>
         <v>81110016.930000007</v>
       </c>
     </row>
@@ -5777,7 +5773,6 @@
         <v>11</v>
       </c>
       <c r="E50" s="47">
-        <f>13938767.05+0.8</f>
         <v>13938767.850000001</v>
       </c>
     </row>
@@ -6039,7 +6034,6 @@
         <v>48</v>
       </c>
       <c r="E75" s="47">
-        <f>25707468.88-210583.92</f>
         <v>25496884.959999997</v>
       </c>
     </row>
@@ -6226,7 +6220,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>651073735.89999998</v>
       </c>
     </row>
@@ -6401,7 +6394,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>22607403.309999999</v>
       </c>
     </row>
@@ -6413,7 +6405,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>673681139.20999992</v>
       </c>
     </row>
@@ -8814,8 +8805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D23F35-FD00-4EAA-AC75-2DA9C700B1AE}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8972,7 +8963,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1341487928.5899999</v>
       </c>
     </row>
@@ -9026,7 +9016,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>201810026.99000001</v>
       </c>
     </row>
@@ -9217,7 +9206,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2843970645.9299998</v>
       </c>
     </row>
@@ -9774,7 +9762,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="62">
-        <f>30220000+67847472</f>
         <v>98067472</v>
       </c>
     </row>
@@ -9795,7 +9782,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>2710172645.3199997</v>
       </c>
     </row>
@@ -9970,7 +9956,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>362721410.71000004</v>
       </c>
     </row>
@@ -9982,7 +9967,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>3072894056.0299997</v>
       </c>
     </row>
@@ -10004,7 +9988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F45F8-7851-401B-8CD0-4C55E5E3A47E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
